--- a/Greq-statemnt.xlsx
+++ b/Greq-statemnt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bank\CheckPaymentSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341AB9EC-42A1-4689-A096-A4D68D98C984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F078F5-27F7-44C6-8CA8-1A271AA76089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BEFF9227-1C51-47D3-9983-EB5203FD6E8C}"/>
   </bookViews>
@@ -1636,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C04E53E-F7A4-493A-843E-690F946A8153}">
   <dimension ref="A1:AE80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
